--- a/Project_7/Test_Case_Doc.xlsx
+++ b/Project_7/Test_Case_Doc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\500040761\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90CED0A-98D8-41B7-B819-362549841320}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D81179FA-EF93-4BE0-AFA8-8831B523942A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="65">
   <si>
     <t>Scenario No.</t>
   </si>
@@ -217,12 +216,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Frisch's Big Boy</t>
+  </si>
+  <si>
+    <t>Search by zonal_area and name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,8 +383,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Style 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Style 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,11 +695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D5D4C5-9133-4E01-A244-758F5C024E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1922,7 +1924,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1966,7 +1968,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2010,7 +2012,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -2054,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
